--- a/artfynd/A 60565-2022.xlsx
+++ b/artfynd/A 60565-2022.xlsx
@@ -831,10 +831,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>105992140</v>
+        <v>105995866</v>
       </c>
       <c r="B3" t="n">
-        <v>77506</v>
+        <v>56540</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -847,40 +847,53 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Söder om Moarsved vid väg 87 , Jmt</t>
+          <t>Söder om Moarsved vid väg 87, Bringåsen, Kyrkås, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>494050.3107072924</v>
+        <v>494209.3541963492</v>
       </c>
       <c r="R3" t="n">
-        <v>7008498.34349319</v>
+        <v>7008500.310303948</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -924,7 +937,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Enstaka bålar av garnlav på en gran. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
+          <t>Observation av lätet från två talltitor. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -933,7 +946,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -944,32 +956,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Äldre flerskiktad och luckig olikåldrig grandominerad skog med inslag av tall och björk på frisk-fuktig och fuktig mark. Här finns bitvis gott om klenvuxna granar. Måttlig förekomst av död ved. Spår av hackspett förekommer.</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>En äldre gran.</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies # En äldre gran.</t>
+          <t>Flerskiktad och luckig olikåldrig grandominerad skog med inslag av tall och björk på frisk-fuktig mark. Måttlig förekomst av död ved.</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -987,10 +974,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>105995866</v>
+        <v>105995751</v>
       </c>
       <c r="B4" t="n">
-        <v>56540</v>
+        <v>77506</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1003,53 +990,40 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Söder om Moarsved vid väg 87, Bringåsen, Kyrkås, Jmt</t>
+          <t>Söder om Moarsved vid väg 87, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>494209.3541963492</v>
+        <v>494202.148634611</v>
       </c>
       <c r="R4" t="n">
-        <v>7008500.310303948</v>
+        <v>7008513.40800454</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1093,7 +1067,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Observation av lätet från två talltitor. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
+          <t>Enstaka bålar av garnlav på gran. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1102,6 +1076,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1113,6 +1088,26 @@
       <c r="AI4" t="inlineStr">
         <is>
           <t>Flerskiktad och luckig olikåldrig grandominerad skog med inslag av tall och björk på frisk-fuktig mark. Måttlig förekomst av död ved.</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1130,7 +1125,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>105999064</v>
+        <v>105992140</v>
       </c>
       <c r="B5" t="n">
         <v>77506</v>
@@ -1169,14 +1164,14 @@
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Söder om Moarsved vid väg 87, Jmt</t>
+          <t>Söder om Moarsved vid väg 87 , Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>494474.5271319833</v>
+        <v>494050.3107072924</v>
       </c>
       <c r="R5" t="n">
-        <v>7008474.578277845</v>
+        <v>7008498.34349319</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1223,7 +1218,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Långväxt garnlav på flera granar. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
+          <t>Enstaka bålar av garnlav på en gran. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1243,7 +1238,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på frisk-fuktig och fuktig mark. Måttlig förekomst av död ved.</t>
+          <t>Äldre flerskiktad och luckig olikåldrig grandominerad skog med inslag av tall och björk på frisk-fuktig och fuktig mark. Här finns bitvis gott om klenvuxna granar. Måttlig förekomst av död ved. Spår av hackspett förekommer.</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1258,7 +1253,7 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>Flera granar.</t>
+          <t>En äldre gran.</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
@@ -1268,7 +1263,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies # Flera granar.</t>
+          <t>Branch on living tree # Picea abies # En äldre gran.</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1286,10 +1281,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>105995751</v>
+        <v>105992530</v>
       </c>
       <c r="B6" t="n">
-        <v>77506</v>
+        <v>56540</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1302,40 +1297,53 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Söder om Moarsved vid väg 87, Jmt</t>
+          <t>Söder om Moarsved vid väg 87 , Bringåsen, Kyrkås, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>494202.148634611</v>
+        <v>494042.194662115</v>
       </c>
       <c r="R6" t="n">
-        <v>7008513.40800454</v>
+        <v>7008507.382451728</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1379,7 +1387,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Enstaka bålar av garnlav på gran. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
+          <t>Synobservation av två talltitor. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1388,7 +1396,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1399,27 +1406,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Flerskiktad och luckig olikåldrig grandominerad skog med inslag av tall och björk på frisk-fuktig mark. Måttlig förekomst av död ved.</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Äldre flerskiktad och luckig olikåldrig grandominerad skog med inslag av tall och björk på frisk-fuktig och fuktig mark. Här finns bitvis gott om klenvuxna granar. Måttlig förekomst av död ved. Spår av hackspett förekommer.</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1437,10 +1424,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>105997494</v>
+        <v>105999064</v>
       </c>
       <c r="B7" t="n">
-        <v>95519</v>
+        <v>77506</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1449,49 +1436,44 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221945</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Söder om Moarsved vid väg 87 , Jmt</t>
+          <t>Söder om Moarsved vid väg 87, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>494482.2234932908</v>
+        <v>494474.5271319833</v>
       </c>
       <c r="R7" t="n">
-        <v>7008483.589166974</v>
+        <v>7008474.578277845</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1535,7 +1517,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Revlummer i äldre granskog. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
+          <t>Långväxt garnlav på flera granar. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1556,6 +1538,31 @@
       <c r="AI7" t="inlineStr">
         <is>
           <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på frisk-fuktig och fuktig mark. Måttlig förekomst av död ved.</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>Flera granar.</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies # Flera granar.</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1573,10 +1580,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>105997290</v>
+        <v>105997494</v>
       </c>
       <c r="B8" t="n">
-        <v>77506</v>
+        <v>95519</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1585,44 +1592,49 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>221945</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Söder om Moarsved vid väg 87, Jmt</t>
+          <t>Söder om Moarsved vid väg 87 , Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>494525.5911953039</v>
+        <v>494482.2234932908</v>
       </c>
       <c r="R8" t="n">
-        <v>7008479.454516516</v>
+        <v>7008483.589166974</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1666,7 +1678,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Garnlav på en gammal gran. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
+          <t>Revlummer i äldre granskog. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1687,31 +1699,6 @@
       <c r="AI8" t="inlineStr">
         <is>
           <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på frisk-fuktig och fuktig mark. Måttlig förekomst av död ved.</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>En gammal gran.</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies # En gammal gran.</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1729,7 +1716,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>105998960</v>
+        <v>105997290</v>
       </c>
       <c r="B9" t="n">
         <v>77506</v>
@@ -1772,10 +1759,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>494483.1356119447</v>
+        <v>494525.5911953039</v>
       </c>
       <c r="R9" t="n">
-        <v>7008488.550826261</v>
+        <v>7008479.454516516</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1822,7 +1809,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Långväxt garnlav på gran. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
+          <t>Garnlav på en gammal gran. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1842,7 +1829,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på fuktig och frisk-fuktig mark. Måttlig förekomst av död ved.</t>
+          <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på frisk-fuktig och fuktig mark. Måttlig förekomst av död ved.</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -1855,6 +1842,11 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>En gammal gran.</t>
+        </is>
+      </c>
       <c r="AM9" t="inlineStr">
         <is>
           <t>Gren på levande träd</t>
@@ -1862,7 +1854,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies # En gammal gran.</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1880,7 +1872,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>105999176</v>
+        <v>105998960</v>
       </c>
       <c r="B10" t="n">
         <v>77506</v>
@@ -1915,25 +1907,21 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Söder om Moarsved vid väg 87, Bringåsen, Kyrkås, Jmt</t>
+          <t>Söder om Moarsved vid väg 87, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>494413.5072449186</v>
+        <v>494483.1356119447</v>
       </c>
       <c r="R10" t="n">
-        <v>7008460.695959454</v>
+        <v>7008488.550826261</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1977,7 +1965,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Långväxt garnlav på flera granar. Vissa bålar är fertila med apothecier. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
+          <t>Långväxt garnlav på gran. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1997,7 +1985,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på frisk-fuktig och fuktig mark. Måttlig förekomst av död ved.</t>
+          <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på fuktig och frisk-fuktig mark. Måttlig förekomst av död ved.</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2010,11 +1998,6 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>Flera granar.</t>
-        </is>
-      </c>
       <c r="AM10" t="inlineStr">
         <is>
           <t>Gren på levande träd</t>
@@ -2022,7 +2005,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies # Flera granar.</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -2040,7 +2023,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>105999145</v>
+        <v>105999176</v>
       </c>
       <c r="B11" t="n">
         <v>77506</v>
@@ -2075,21 +2058,25 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Söder om Moarsved vid väg 87, Jmt</t>
+          <t>Söder om Moarsved vid väg 87, Bringåsen, Kyrkås, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>494437.9032917137</v>
+        <v>494413.5072449186</v>
       </c>
       <c r="R11" t="n">
-        <v>7008459.300220608</v>
+        <v>7008460.695959454</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -2133,7 +2120,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Garnlav på flera granar. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
+          <t>Långväxt garnlav på flera granar. Vissa bålar är fertila med apothecier. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2196,7 +2183,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>105999250</v>
+        <v>105999145</v>
       </c>
       <c r="B12" t="n">
         <v>77506</v>
@@ -2239,10 +2226,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>494486.1966181844</v>
+        <v>494437.9032917137</v>
       </c>
       <c r="R12" t="n">
-        <v>7008428.986477648</v>
+        <v>7008459.300220608</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2289,7 +2276,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Långväxt garnlav på gran. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
+          <t>Garnlav på flera granar. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2309,7 +2296,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på fuktig och frisk-fuktig mark. Måttlig förekomst av död ved.</t>
+          <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på frisk-fuktig och fuktig mark. Måttlig förekomst av död ved.</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -2322,6 +2309,11 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>Flera granar.</t>
+        </is>
+      </c>
       <c r="AM12" t="inlineStr">
         <is>
           <t>Gren på levande träd</t>
@@ -2329,7 +2321,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies # Flera granar.</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2347,10 +2339,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>105999153</v>
+        <v>105999250</v>
       </c>
       <c r="B13" t="n">
-        <v>56540</v>
+        <v>77506</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2363,53 +2355,40 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Söder om Moarsved vid väg 87, Bringåsen, Kyrkås, Jmt</t>
+          <t>Söder om Moarsved vid väg 87, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>494413.5072449186</v>
+        <v>494486.1966181844</v>
       </c>
       <c r="R13" t="n">
-        <v>7008460.695959454</v>
+        <v>7008428.986477648</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2453,7 +2432,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Synobservation av 2 st. talltitor i äldre granskog. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
+          <t>Långväxt garnlav på gran. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2462,6 +2441,7 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2472,7 +2452,27 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på frisk-fuktig och fuktig mark. Måttlig förekomst av död ved.</t>
+          <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på fuktig och frisk-fuktig mark. Måttlig förekomst av död ved.</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2490,10 +2490,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>105999222</v>
+        <v>105999153</v>
       </c>
       <c r="B14" t="n">
-        <v>77506</v>
+        <v>56540</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2506,40 +2506,53 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Söder om Moarsved vid väg 87 , Jmt</t>
+          <t>Söder om Moarsved vid väg 87, Bringåsen, Kyrkås, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>494445.9996056877</v>
+        <v>494413.5072449186</v>
       </c>
       <c r="R14" t="n">
-        <v>7008438.079558863</v>
+        <v>7008460.695959454</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2583,7 +2596,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Långväxt garnlav på gran. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
+          <t>Synobservation av 2 st. talltitor i äldre granskog. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2592,7 +2605,6 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2603,27 +2615,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på fuktig och frisk-fuktig mark. Måttlig förekomst av död ved.</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på frisk-fuktig och fuktig mark. Måttlig förekomst av död ved.</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2641,7 +2633,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>105999303</v>
+        <v>105999222</v>
       </c>
       <c r="B15" t="n">
         <v>77506</v>
@@ -2676,22 +2668,18 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Söder om Moarsved vid väg 87, Jmt</t>
+          <t>Söder om Moarsved vid väg 87 , Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>494510.6328289391</v>
+        <v>494445.9996056877</v>
       </c>
       <c r="R15" t="n">
-        <v>7008451.054030739</v>
+        <v>7008438.079558863</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2738,7 +2726,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Långväxt garnlav på gran. Vissa bålar är fertila med apothecier. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
+          <t>Långväxt garnlav på gran. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2796,7 +2784,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>105999220</v>
+        <v>105999303</v>
       </c>
       <c r="B16" t="n">
         <v>77506</v>
@@ -2831,7 +2819,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2839,10 +2831,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>494404.4989613732</v>
+        <v>494510.6328289391</v>
       </c>
       <c r="R16" t="n">
-        <v>7008476.954907262</v>
+        <v>7008451.054030739</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2889,7 +2881,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Måttlig påväxt av garnlav på gran. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
+          <t>Långväxt garnlav på gran. Vissa bålar är fertila med apothecier. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2909,7 +2901,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på frisk-fuktig och fuktig mark. Måttlig förekomst av död ved.</t>
+          <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på fuktig och frisk-fuktig mark. Måttlig förekomst av död ved.</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
@@ -2947,10 +2939,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>105992530</v>
+        <v>105999220</v>
       </c>
       <c r="B17" t="n">
-        <v>56540</v>
+        <v>77506</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2963,53 +2955,40 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Söder om Moarsved vid väg 87 , Bringåsen, Kyrkås, Jmt</t>
+          <t>Söder om Moarsved vid väg 87, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>494042.194662115</v>
+        <v>494404.4989613732</v>
       </c>
       <c r="R17" t="n">
-        <v>7008507.382451728</v>
+        <v>7008476.954907262</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -3053,7 +3032,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Synobservation av två talltitor. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
+          <t>Måttlig påväxt av garnlav på gran. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -3062,6 +3041,7 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -3072,7 +3052,27 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>Äldre flerskiktad och luckig olikåldrig grandominerad skog med inslag av tall och björk på frisk-fuktig och fuktig mark. Här finns bitvis gott om klenvuxna granar. Måttlig förekomst av död ved. Spår av hackspett förekommer.</t>
+          <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på frisk-fuktig och fuktig mark. Måttlig förekomst av död ved.</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>

--- a/artfynd/A 60565-2022.xlsx
+++ b/artfynd/A 60565-2022.xlsx
@@ -831,10 +831,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>105995866</v>
+        <v>105992140</v>
       </c>
       <c r="B3" t="n">
-        <v>56540</v>
+        <v>77506</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -847,53 +847,40 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Söder om Moarsved vid väg 87, Bringåsen, Kyrkås, Jmt</t>
+          <t>Söder om Moarsved vid väg 87 , Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>494209.3541963492</v>
+        <v>494050.3107072924</v>
       </c>
       <c r="R3" t="n">
-        <v>7008500.310303948</v>
+        <v>7008498.34349319</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -937,7 +924,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Observation av lätet från två talltitor. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
+          <t>Enstaka bålar av garnlav på en gran. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -946,6 +933,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -956,7 +944,32 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>Flerskiktad och luckig olikåldrig grandominerad skog med inslag av tall och björk på frisk-fuktig mark. Måttlig förekomst av död ved.</t>
+          <t>Äldre flerskiktad och luckig olikåldrig grandominerad skog med inslag av tall och björk på frisk-fuktig och fuktig mark. Här finns bitvis gott om klenvuxna granar. Måttlig förekomst av död ved. Spår av hackspett förekommer.</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>En äldre gran.</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies # En äldre gran.</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -974,10 +987,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>105995751</v>
+        <v>105995866</v>
       </c>
       <c r="B4" t="n">
-        <v>77506</v>
+        <v>56540</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -990,40 +1003,53 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Söder om Moarsved vid väg 87, Jmt</t>
+          <t>Söder om Moarsved vid väg 87, Bringåsen, Kyrkås, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>494202.148634611</v>
+        <v>494209.3541963492</v>
       </c>
       <c r="R4" t="n">
-        <v>7008513.40800454</v>
+        <v>7008500.310303948</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1067,7 +1093,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Enstaka bålar av garnlav på gran. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
+          <t>Observation av lätet från två talltitor. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1076,7 +1102,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1088,26 +1113,6 @@
       <c r="AI4" t="inlineStr">
         <is>
           <t>Flerskiktad och luckig olikåldrig grandominerad skog med inslag av tall och björk på frisk-fuktig mark. Måttlig förekomst av död ved.</t>
-        </is>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1125,7 +1130,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>105992140</v>
+        <v>105999064</v>
       </c>
       <c r="B5" t="n">
         <v>77506</v>
@@ -1164,14 +1169,14 @@
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Söder om Moarsved vid väg 87 , Jmt</t>
+          <t>Söder om Moarsved vid väg 87, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>494050.3107072924</v>
+        <v>494474.5271319833</v>
       </c>
       <c r="R5" t="n">
-        <v>7008498.34349319</v>
+        <v>7008474.578277845</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
@@ -1218,7 +1223,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Enstaka bålar av garnlav på en gran. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
+          <t>Långväxt garnlav på flera granar. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1238,7 +1243,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>Äldre flerskiktad och luckig olikåldrig grandominerad skog med inslag av tall och björk på frisk-fuktig och fuktig mark. Här finns bitvis gott om klenvuxna granar. Måttlig förekomst av död ved. Spår av hackspett förekommer.</t>
+          <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på frisk-fuktig och fuktig mark. Måttlig förekomst av död ved.</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1253,7 +1258,7 @@
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>En äldre gran.</t>
+          <t>Flera granar.</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
@@ -1263,7 +1268,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies # En äldre gran.</t>
+          <t>Branch on living tree # Picea abies # Flera granar.</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>
@@ -1281,10 +1286,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>105992530</v>
+        <v>105995751</v>
       </c>
       <c r="B6" t="n">
-        <v>56540</v>
+        <v>77506</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1297,53 +1302,40 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>upprörd, varnande</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Söder om Moarsved vid väg 87 , Bringåsen, Kyrkås, Jmt</t>
+          <t>Söder om Moarsved vid väg 87, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>494042.194662115</v>
+        <v>494202.148634611</v>
       </c>
       <c r="R6" t="n">
-        <v>7008507.382451728</v>
+        <v>7008513.40800454</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1387,7 +1379,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Synobservation av två talltitor. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
+          <t>Enstaka bålar av garnlav på gran. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1396,6 +1388,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1406,7 +1399,27 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>Äldre flerskiktad och luckig olikåldrig grandominerad skog med inslag av tall och björk på frisk-fuktig och fuktig mark. Här finns bitvis gott om klenvuxna granar. Måttlig förekomst av död ved. Spår av hackspett förekommer.</t>
+          <t>Flerskiktad och luckig olikåldrig grandominerad skog med inslag av tall och björk på frisk-fuktig mark. Måttlig förekomst av död ved.</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr"/>
@@ -1424,10 +1437,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>105999064</v>
+        <v>105997494</v>
       </c>
       <c r="B7" t="n">
-        <v>77506</v>
+        <v>95519</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1436,44 +1449,49 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>221945</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Söder om Moarsved vid väg 87, Jmt</t>
+          <t>Söder om Moarsved vid väg 87 , Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>494474.5271319833</v>
+        <v>494482.2234932908</v>
       </c>
       <c r="R7" t="n">
-        <v>7008474.578277845</v>
+        <v>7008483.589166974</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1517,7 +1535,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Långväxt garnlav på flera granar. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
+          <t>Revlummer i äldre granskog. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1538,31 +1556,6 @@
       <c r="AI7" t="inlineStr">
         <is>
           <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på frisk-fuktig och fuktig mark. Måttlig förekomst av död ved.</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>Flera granar.</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies # Flera granar.</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr"/>
@@ -1580,10 +1573,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>105997494</v>
+        <v>105997290</v>
       </c>
       <c r="B8" t="n">
-        <v>95519</v>
+        <v>77506</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1592,49 +1585,44 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221945</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Söder om Moarsved vid väg 87 , Jmt</t>
+          <t>Söder om Moarsved vid väg 87, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>494482.2234932908</v>
+        <v>494525.5911953039</v>
       </c>
       <c r="R8" t="n">
-        <v>7008483.589166974</v>
+        <v>7008479.454516516</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1678,7 +1666,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Revlummer i äldre granskog. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
+          <t>Garnlav på en gammal gran. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1699,6 +1687,31 @@
       <c r="AI8" t="inlineStr">
         <is>
           <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på frisk-fuktig och fuktig mark. Måttlig förekomst av död ved.</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>En gammal gran.</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies # En gammal gran.</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1716,7 +1729,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>105997290</v>
+        <v>105998960</v>
       </c>
       <c r="B9" t="n">
         <v>77506</v>
@@ -1759,10 +1772,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>494525.5911953039</v>
+        <v>494483.1356119447</v>
       </c>
       <c r="R9" t="n">
-        <v>7008479.454516516</v>
+        <v>7008488.550826261</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1809,7 +1822,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Garnlav på en gammal gran. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
+          <t>Långväxt garnlav på gran. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1829,7 +1842,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på frisk-fuktig och fuktig mark. Måttlig förekomst av död ved.</t>
+          <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på fuktig och frisk-fuktig mark. Måttlig förekomst av död ved.</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -1842,11 +1855,6 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>En gammal gran.</t>
-        </is>
-      </c>
       <c r="AM9" t="inlineStr">
         <is>
           <t>Gren på levande träd</t>
@@ -1854,7 +1862,7 @@
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies # En gammal gran.</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1872,7 +1880,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>105998960</v>
+        <v>105999176</v>
       </c>
       <c r="B10" t="n">
         <v>77506</v>
@@ -1907,21 +1915,25 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Söder om Moarsved vid väg 87, Jmt</t>
+          <t>Söder om Moarsved vid väg 87, Bringåsen, Kyrkås, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>494483.1356119447</v>
+        <v>494413.5072449186</v>
       </c>
       <c r="R10" t="n">
-        <v>7008488.550826261</v>
+        <v>7008460.695959454</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1965,7 +1977,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Långväxt garnlav på gran. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
+          <t>Långväxt garnlav på flera granar. Vissa bålar är fertila med apothecier. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1985,7 +1997,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på fuktig och frisk-fuktig mark. Måttlig förekomst av död ved.</t>
+          <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på frisk-fuktig och fuktig mark. Måttlig förekomst av död ved.</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -1998,6 +2010,11 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>Flera granar.</t>
+        </is>
+      </c>
       <c r="AM10" t="inlineStr">
         <is>
           <t>Gren på levande träd</t>
@@ -2005,7 +2022,7 @@
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies # Flera granar.</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -2023,7 +2040,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>105999176</v>
+        <v>105999145</v>
       </c>
       <c r="B11" t="n">
         <v>77506</v>
@@ -2058,25 +2075,21 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Söder om Moarsved vid väg 87, Bringåsen, Kyrkås, Jmt</t>
+          <t>Söder om Moarsved vid väg 87, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>494413.5072449186</v>
+        <v>494437.9032917137</v>
       </c>
       <c r="R11" t="n">
-        <v>7008460.695959454</v>
+        <v>7008459.300220608</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -2120,7 +2133,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Långväxt garnlav på flera granar. Vissa bålar är fertila med apothecier. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
+          <t>Garnlav på flera granar. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2183,7 +2196,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>105999145</v>
+        <v>105999250</v>
       </c>
       <c r="B12" t="n">
         <v>77506</v>
@@ -2226,10 +2239,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>494437.9032917137</v>
+        <v>494486.1966181844</v>
       </c>
       <c r="R12" t="n">
-        <v>7008459.300220608</v>
+        <v>7008428.986477648</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2276,7 +2289,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Garnlav på flera granar. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
+          <t>Långväxt garnlav på gran. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2296,7 +2309,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på frisk-fuktig och fuktig mark. Måttlig förekomst av död ved.</t>
+          <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på fuktig och frisk-fuktig mark. Måttlig förekomst av död ved.</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -2309,11 +2322,6 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>Flera granar.</t>
-        </is>
-      </c>
       <c r="AM12" t="inlineStr">
         <is>
           <t>Gren på levande träd</t>
@@ -2321,7 +2329,7 @@
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies # Flera granar.</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2339,10 +2347,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>105999250</v>
+        <v>105999153</v>
       </c>
       <c r="B13" t="n">
-        <v>77506</v>
+        <v>56540</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2355,40 +2363,53 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Söder om Moarsved vid väg 87, Jmt</t>
+          <t>Söder om Moarsved vid väg 87, Bringåsen, Kyrkås, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>494486.1966181844</v>
+        <v>494413.5072449186</v>
       </c>
       <c r="R13" t="n">
-        <v>7008428.986477648</v>
+        <v>7008460.695959454</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2432,7 +2453,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Långväxt garnlav på gran. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
+          <t>Synobservation av 2 st. talltitor i äldre granskog. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2441,7 +2462,6 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2452,27 +2472,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på fuktig och frisk-fuktig mark. Måttlig förekomst av död ved.</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM13" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på frisk-fuktig och fuktig mark. Måttlig förekomst av död ved.</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2490,10 +2490,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>105999153</v>
+        <v>105999222</v>
       </c>
       <c r="B14" t="n">
-        <v>56540</v>
+        <v>77506</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2506,53 +2506,40 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Söder om Moarsved vid väg 87, Bringåsen, Kyrkås, Jmt</t>
+          <t>Söder om Moarsved vid väg 87 , Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>494413.5072449186</v>
+        <v>494445.9996056877</v>
       </c>
       <c r="R14" t="n">
-        <v>7008460.695959454</v>
+        <v>7008438.079558863</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2596,7 +2583,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Synobservation av 2 st. talltitor i äldre granskog. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
+          <t>Långväxt garnlav på gran. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2605,6 +2592,7 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2615,7 +2603,27 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på frisk-fuktig och fuktig mark. Måttlig förekomst av död ved.</t>
+          <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på fuktig och frisk-fuktig mark. Måttlig förekomst av död ved.</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2633,7 +2641,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>105999222</v>
+        <v>105999303</v>
       </c>
       <c r="B15" t="n">
         <v>77506</v>
@@ -2668,18 +2676,22 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Söder om Moarsved vid väg 87 , Jmt</t>
+          <t>Söder om Moarsved vid väg 87, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>494445.9996056877</v>
+        <v>494510.6328289391</v>
       </c>
       <c r="R15" t="n">
-        <v>7008438.079558863</v>
+        <v>7008451.054030739</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2726,7 +2738,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Långväxt garnlav på gran. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
+          <t>Långväxt garnlav på gran. Vissa bålar är fertila med apothecier. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2784,7 +2796,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>105999303</v>
+        <v>105999220</v>
       </c>
       <c r="B16" t="n">
         <v>77506</v>
@@ -2819,11 +2831,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2831,10 +2839,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>494510.6328289391</v>
+        <v>494404.4989613732</v>
       </c>
       <c r="R16" t="n">
-        <v>7008451.054030739</v>
+        <v>7008476.954907262</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2881,7 +2889,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Långväxt garnlav på gran. Vissa bålar är fertila med apothecier. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
+          <t>Måttlig påväxt av garnlav på gran. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2901,7 +2909,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på fuktig och frisk-fuktig mark. Måttlig förekomst av död ved.</t>
+          <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på frisk-fuktig och fuktig mark. Måttlig förekomst av död ved.</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
@@ -2939,10 +2947,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>105999220</v>
+        <v>105992530</v>
       </c>
       <c r="B17" t="n">
-        <v>77506</v>
+        <v>56540</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2955,40 +2963,53 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>upprörd, varnande</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Söder om Moarsved vid väg 87, Jmt</t>
+          <t>Söder om Moarsved vid väg 87 , Bringåsen, Kyrkås, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>494404.4989613732</v>
+        <v>494042.194662115</v>
       </c>
       <c r="R17" t="n">
-        <v>7008476.954907262</v>
+        <v>7008507.382451728</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -3032,7 +3053,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Måttlig påväxt av garnlav på gran. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
+          <t>Synobservation av två talltitor. Obs! Fyndplatsen finns inom en avverkningsanmäld yta med beteckning A 60565-2022.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -3041,7 +3062,6 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -3052,27 +3072,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>Flerskiktad och luckig grandominerad äldre skog med inslag av tall, björk och sälg på frisk-fuktig och fuktig mark. Måttlig förekomst av död ved.</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Äldre flerskiktad och luckig olikåldrig grandominerad skog med inslag av tall och björk på frisk-fuktig och fuktig mark. Här finns bitvis gott om klenvuxna granar. Måttlig förekomst av död ved. Spår av hackspett förekommer.</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
